--- a/Datos/Wordpress_Catálogo_EBA.xlsx
+++ b/Datos/Wordpress_Catálogo_EBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\Dropbox\Estadísticas EBA - Nuria\Mi trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\OneDrive\Universidad\Prácticas EBA\Mi trabajo con Python\statisticsReader\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5EC77D-5FDD-48F6-BEEE-0990FC3C822B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4F5EC77D-5FDD-48F6-BEEE-0990FC3C822B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C3E8F3B1-1008-4518-8005-A9C5E5991A70}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" activeTab="4" xr2:uid="{BDE75872-5153-4CCC-A9B0-F0E9ADC989DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BDE75872-5153-4CCC-A9B0-F0E9ADC989DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tráfico" sheetId="1" r:id="rId1"/>
@@ -2546,15 +2546,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43221</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43252</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43282</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>6.2164599774520859</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43313</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>3.9434628975265018</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43344</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>5.1730769230769234</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43374</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>6.0698324022346366</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43405</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>5.790322580645161</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43435</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>4.7962962962962967</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43466</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>5.1585365853658534</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43497</v>
       </c>
@@ -2731,13 +2731,13 @@
       <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>7803</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>22</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>26</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>27</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>29</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>30</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>31</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>32</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>33</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>34</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>35</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>36</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>37</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>38</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>39</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>40</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>41</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>42</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>43</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>44</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>45</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>46</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>47</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>48</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>49</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>50</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>51</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>52</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>53</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>54</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>55</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>56</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>57</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>58</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>59</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>60</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>61</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>62</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>63</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>64</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>65</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>66</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>67</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>68</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>69</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>70</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>71</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>72</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>73</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>75</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>76</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>77</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>78</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>79</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>80</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>81</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>82</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>83</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>84</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>85</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>86</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>87</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>88</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>89</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>90</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>91</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>92</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>93</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>94</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>95</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>96</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>97</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>98</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>99</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>100</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>101</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>102</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>103</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>104</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>105</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>106</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>107</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>108</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>109</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>110</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>111</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>112</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>113</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>114</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>115</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>116</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>117</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>118</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>119</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>120</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>121</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>122</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>123</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>124</v>
       </c>
@@ -3710,13 +3710,13 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>125</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>126</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>13568</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>127</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>128</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>129</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>130</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>131</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>132</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>133</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>134</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>135</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>136</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>137</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>138</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>139</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>140</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>141</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>142</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>143</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>144</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>145</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>146</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>147</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>148</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>149</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>150</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>151</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>152</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>153</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>154</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>155</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>156</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>157</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>158</v>
       </c>
@@ -4002,12 +4002,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.88671875" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>161</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>162</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>163</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>164</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>165</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>166</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>167</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>168</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>169</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>171</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>172</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>173</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>174</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>175</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>176</v>
       </c>
@@ -4152,16 +4152,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35B98A7-3D43-4D64-9D0C-BA68A811DE67}">
   <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>177</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>161</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>164</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>162</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>178</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>165</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>179</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>163</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>180</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>181</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>182</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>171</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>183</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>185</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>184</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>186</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>188</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>187</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>190</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>168</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>189</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>197</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>193</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>192</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>191</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>195</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>196</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>194</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>198</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>203</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>206</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>204</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>208</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>202</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>201</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>207</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>658</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>200</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>205</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>199</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>214</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>210</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>215</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>211</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>212</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>170</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>219</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>213</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>218</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>224</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>223</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>216</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>167</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>222</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>220</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>221</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>217</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>209</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>235</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>228</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>227</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>240</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>233</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>231</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>229</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>230</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>225</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>232</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>237</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>169</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>236</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>226</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>238</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>234</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>239</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>241</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>242</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>243</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>244</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>245</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>246</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>247</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>248</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>249</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>250</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>251</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>252</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>253</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>254</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>255</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>256</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>257</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>259</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>258</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>272</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>263</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>334</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>264</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>267</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>279</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>268</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>269</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>260</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>270</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>275</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>273</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>274</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>261</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>276</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>277</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>265</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>287</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>283</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>355</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>280</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>262</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>282</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>281</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>296</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>333</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>289</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>298</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>290</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>299</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>291</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>284</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>300</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>294</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>297</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>271</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>292</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>406</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>285</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>306</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>266</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>303</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>304</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>305</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>295</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>307</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>302</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>336</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>356</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>573</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>316</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>317</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>318</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>309</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>319</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>321</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>322</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>323</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>325</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>326</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>314</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>313</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>327</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>329</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>330</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>308</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>401</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>450</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>544</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>449</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>315</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>452</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>335</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>332</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>358</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>337</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>338</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>339</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>340</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>341</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>345</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>342</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>344</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>346</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>369</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>347</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>348</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>349</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>350</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>351</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>352</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>353</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>354</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>343</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>462</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>415</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>422</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>357</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>371</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>365</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>366</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>660</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>331</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>359</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>367</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>370</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>425</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>363</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>373</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>361</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>374</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>661</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>375</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>376</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>399</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>379</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>400</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>404</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>320</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>591</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>364</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>360</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>427</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>377</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>382</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>383</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>384</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>385</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>386</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>380</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>387</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>390</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>389</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>392</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>405</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>393</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>394</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>395</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>396</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>397</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>398</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>388</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>378</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>368</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>391</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>372</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>362</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>448</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>412</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>301</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>278</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>288</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>407</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>408</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>409</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>410</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>411</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>402</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>413</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>429</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>293</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>414</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>416</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>286</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>417</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>418</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>419</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>420</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>421</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>572</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>310</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>423</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>442</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>439</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>430</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>431</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>432</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>433</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>434</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>435</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>426</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>436</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>438</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>440</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>662</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>441</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>428</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>403</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>443</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>444</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>445</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>446</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>447</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>437</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>424</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
         <v>571</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>632</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>574</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>498</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>454</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>455</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>456</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>457</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
         <v>458</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>459</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>460</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>451</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>463</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>464</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>481</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>614</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>465</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>467</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>468</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>469</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>470</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>471</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>497</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>474</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>453</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>615</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>461</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>487</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>478</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>522</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>480</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>482</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>495</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>483</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>616</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>484</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>485</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>488</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>514</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>489</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>490</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>491</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>492</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>493</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>494</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>496</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>520</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>538</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>475</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>473</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>486</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>476</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>516</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>540</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>525</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>523</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>501</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>507</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>500</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>504</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>503</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>509</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>510</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>513</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>511</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>502</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>512</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>663</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>515</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>533</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>518</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>506</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
         <v>664</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
         <v>665</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
         <v>531</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
         <v>517</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
         <v>466</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
         <v>534</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
         <v>508</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
         <v>594</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
         <v>535</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
         <v>527</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
         <v>479</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
         <v>528</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
         <v>529</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
         <v>530</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>532</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
         <v>666</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
         <v>667</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
         <v>537</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
         <v>613</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
         <v>539</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
         <v>526</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
         <v>519</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
         <v>524</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
         <v>541</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
         <v>505</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
         <v>536</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
         <v>521</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
         <v>477</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
         <v>542</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
         <v>554</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
         <v>559</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
         <v>550</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
         <v>551</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
         <v>576</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
         <v>472</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
         <v>575</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
         <v>568</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
         <v>578</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
         <v>635</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
         <v>637</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
         <v>560</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
         <v>548</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
         <v>561</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
         <v>562</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
         <v>563</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
         <v>564</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
         <v>565</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
         <v>566</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
         <v>592</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
         <v>593</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
         <v>630</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
         <v>549</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
         <v>547</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
         <v>621</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
         <v>584</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
         <v>328</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
         <v>545</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
         <v>312</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
         <v>324</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
         <v>579</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
         <v>570</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
         <v>580</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
         <v>582</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
         <v>583</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
         <v>585</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
         <v>546</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
         <v>586</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
         <v>587</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
         <v>588</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
         <v>590</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
         <v>552</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
         <v>612</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
         <v>311</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
         <v>581</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
         <v>556</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
         <v>567</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
         <v>619</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
         <v>558</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
         <v>499</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>607</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
         <v>598</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>555</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
         <v>599</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>601</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
         <v>602</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
         <v>603</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
         <v>604</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
         <v>595</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
         <v>605</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
         <v>608</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
         <v>596</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
         <v>609</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
         <v>634</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
         <v>597</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
         <v>633</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
         <v>600</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
         <v>577</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
         <v>589</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
         <v>611</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
         <v>553</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
         <v>543</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
         <v>610</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
         <v>617</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
         <v>622</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
         <v>668</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
         <v>624</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
         <v>625</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
         <v>626</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
         <v>627</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
         <v>628</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
         <v>629</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
         <v>620</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
         <v>669</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
         <v>670</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
         <v>671</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
         <v>606</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
         <v>623</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
         <v>636</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
         <v>557</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
         <v>569</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
         <v>638</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
         <v>639</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
         <v>640</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
         <v>641</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
         <v>631</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
         <v>618</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
         <v>381</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
         <v>642</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="s">
         <v>643</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
         <v>644</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
         <v>645</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
         <v>646</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
         <v>647</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
         <v>648</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
         <v>649</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="s">
         <v>650</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
         <v>651</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
         <v>652</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="s">
         <v>653</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
         <v>654</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
         <v>655</v>
       </c>
@@ -8205,17 +8205,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B7BEA9-52E8-4A61-A650-6F073D869EC9}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <f>Tráfico!A4</f>
         <v>43282</v>
@@ -8238,7 +8238,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <f>Tráfico!A5</f>
         <v>43313</v>
@@ -8250,31 +8250,43 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <f>Tráfico!A6</f>
         <v>43344</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <f>Tráfico!A7</f>
         <v>43374</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <f>Tráfico!A8</f>
         <v>43405</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <f>Tráfico!A9</f>
         <v>43435</v>
@@ -8286,23 +8298,31 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <f>Tráfico!A10</f>
         <v>43466</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <f>Tráfico!A11</f>
         <v>43497</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f>SUM(B2:B9)</f>
         <v>167.8</v>
